--- a/codigo_final_organizado/analisis/resultados_rankings_comparacion/ranking_modelos_DM.xlsx
+++ b/codigo_final_organizado/analisis/resultados_rankings_comparacion/ranking_modelos_DM.xlsx
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -554,20 +554,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>37.5</v>
@@ -586,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>37.5</v>
@@ -604,20 +604,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
         <v>25</v>
@@ -629,23 +629,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G8" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -810,23 +810,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -835,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="7">
@@ -885,23 +885,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8">
@@ -910,23 +910,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>AREPD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>-4</v>
       </c>
       <c r="G8" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -939,19 +939,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -960,20 +960,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1066,23 +1066,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4">
@@ -1091,23 +1091,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1116,20 +1116,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>37.5</v>
@@ -1148,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>37.5</v>
@@ -1166,20 +1166,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
         <v>25</v>
@@ -1191,23 +1191,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G8" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3">
@@ -1347,23 +1347,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sieve Bootstrap</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="4">
@@ -1372,23 +1372,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1447,20 +1447,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G7" t="n">
         <v>12.5</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
